--- a/sample.xlsx
+++ b/sample.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\serg\21school\c#_piscine\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\serg\21school\c#_piscine\Day00\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="9300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6810" windowHeight="1725" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Уменьшение суммы" sheetId="1" r:id="rId1"/>
+    <sheet name="Уменьшение платежа" sheetId="1" r:id="rId1"/>
     <sheet name="Уменьшение срока" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -391,7 +391,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,6 +435,9 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>44317</v>
+      </c>
       <c r="B2">
         <f>K2*K$8*(1+K$8)^K4/((1+K$8)^K4-1)</f>
         <v>105582.07655117115</v>
@@ -464,20 +467,20 @@
         <v>44348</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B5" si="0">IF(G3&gt;0,(E2-G3)*K$8*(1+K$8)^(K$4-F3)/((1+K$8)^(K$4-F3)-1),B2)</f>
+        <f t="shared" ref="B3:B5" si="0">IF(G3&gt;0,E3*K$8*(1+K$8)^(K$4-F3)/((1+K$8)^(K$4-F3)-1),B2)</f>
         <v>105582.07655117115</v>
       </c>
       <c r="C3" s="3">
-        <f>B3-D3</f>
-        <v>105582.07655117115</v>
+        <f>MIN(B2-D3,E2)</f>
+        <v>95390.295729253339</v>
       </c>
       <c r="D3" s="3">
-        <f>(E$2-G3)*K$3/100*(A$3-A$3)/365</f>
-        <v>0</v>
+        <f t="shared" ref="D3:D6" si="1">E2*K$3/100*(A3-A2)/365</f>
+        <v>10191.780821917808</v>
       </c>
       <c r="E3" s="3">
-        <f>MAX(E2-C3-G3,0)</f>
-        <v>894417.92344882886</v>
+        <f>E2-C3-G3</f>
+        <v>904609.70427074668</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -487,7 +490,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="3">
-        <f>H2+B3+G3</f>
+        <f t="shared" ref="H3:H12" si="2">H2+C3+IF(E3&gt;0,D3,0)+G3</f>
         <v>105582.07655117115</v>
       </c>
       <c r="J3" t="s">
@@ -506,26 +509,26 @@
         <v>105582.07655117115</v>
       </c>
       <c r="C4" s="3">
-        <f>B4-D4</f>
-        <v>96760.420319895027</v>
+        <f>MIN(B3-D4,E3)</f>
+        <v>96659.898646035013</v>
       </c>
       <c r="D4" s="3">
-        <f>(E3-G4)*K$3/100*(A4-A3)/365</f>
-        <v>8821.6562312761198</v>
+        <f t="shared" si="1"/>
+        <v>8922.1779051361318</v>
       </c>
       <c r="E4" s="3">
-        <f t="shared" ref="E4:E12" si="1">MAX(E3-C4-G4,0)</f>
-        <v>797657.50312893384</v>
+        <f t="shared" ref="E4:E13" si="3">E3-C4-G4</f>
+        <v>807949.80562471168</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G12" si="2">IF(F4=K$5,K$6,0)</f>
+        <f t="shared" ref="G4:G12" si="4">IF(F4=K$5,K$6,0)</f>
         <v>0</v>
       </c>
       <c r="H4" s="3">
-        <f t="shared" ref="H4:H12" si="3">H3+B4+G4</f>
+        <f t="shared" si="2"/>
         <v>211164.1531023423</v>
       </c>
       <c r="J4" t="s">
@@ -544,26 +547,26 @@
         <v>105582.07655117115</v>
       </c>
       <c r="C5" s="3">
-        <f t="shared" ref="C5:C12" si="4">B5-D5</f>
-        <v>97452.52610832284</v>
+        <f t="shared" ref="C5:C12" si="5">MIN(B4-D5,E4)</f>
+        <v>97347.629217132999</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" ref="D5:D12" si="5">(E4-G5)*K$3/100*(A5-A4)/365</f>
-        <v>8129.5504428483127</v>
+        <f t="shared" si="1"/>
+        <v>8234.4473340381555</v>
       </c>
       <c r="E5" s="3">
-        <f t="shared" si="1"/>
-        <v>700204.97702061106</v>
+        <f t="shared" si="3"/>
+        <v>710602.17640757863</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
       <c r="G5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H5" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>316746.22965351347</v>
       </c>
       <c r="J5" t="s">
@@ -578,30 +581,30 @@
         <v>44440</v>
       </c>
       <c r="B6">
-        <f>IF(G6&gt;0,(E5-G6)*K$8*(1+K$8)^(K$4-F6)/((1+K$8)^(K$4-F6)-1),B5)</f>
+        <f>IF(G6&gt;0,E6*K$8*(1+K$8)^(K$4-F6)/((1+K$8)^(K$4-F6)-1),B5)</f>
         <v>105582.07655117115</v>
       </c>
       <c r="C6" s="3">
-        <f t="shared" si="4"/>
-        <v>98445.740894961084</v>
+        <f t="shared" si="5"/>
+        <v>98339.77491764733</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="5"/>
-        <v>7136.3356562100644</v>
+        <f t="shared" si="1"/>
+        <v>7242.3016335238162</v>
       </c>
       <c r="E6" s="3">
-        <f t="shared" si="1"/>
-        <v>601759.23612565</v>
+        <f t="shared" si="3"/>
+        <v>612262.40148993128</v>
       </c>
       <c r="F6">
         <v>4</v>
       </c>
       <c r="G6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H6" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>422328.3062046846</v>
       </c>
       <c r="J6" t="s">
@@ -616,31 +619,31 @@
         <v>44470</v>
       </c>
       <c r="B7">
-        <f>IF(G7&gt;0,(E6-G7)*K$8*(1+K$8)^(K$4-F7)/((1+K$8)^(K$4-F7)-1),B6)</f>
-        <v>103382.37246674609</v>
+        <f>IF(G7&gt;0,E7*K$8*(1+K$8)^(K$4-F7)/((1+K$8)^(K$4-F7)-1),B6)</f>
+        <v>85036.556003459846</v>
       </c>
       <c r="C7" s="3">
-        <f t="shared" si="4"/>
-        <v>98433.514247424609</v>
+        <f t="shared" si="5"/>
+        <v>99543.324098119774</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="5"/>
-        <v>4948.8582193214797</v>
+        <f>E6*K$3/100*(A7-A6)/365</f>
+        <v>6038.7524530513774</v>
       </c>
       <c r="E7" s="3">
-        <f t="shared" si="1"/>
-        <v>403325.72187822539</v>
+        <f t="shared" si="3"/>
+        <v>412719.07739181153</v>
       </c>
       <c r="F7">
         <v>5</v>
       </c>
       <c r="G7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>100000</v>
       </c>
       <c r="H7" s="3">
-        <f t="shared" si="3"/>
-        <v>625710.67867143068</v>
+        <f t="shared" si="2"/>
+        <v>627910.3827558558</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -648,31 +651,31 @@
         <v>44501</v>
       </c>
       <c r="B8">
-        <f t="shared" ref="B8:B12" si="6">IF(G8&gt;0,(E7-G8)*K$8*(1+K$8)^(K$4-F8)/((1+K$8)^(K$4-F8)-1),B7)</f>
-        <v>103382.37246674609</v>
+        <f>IF(G8&gt;0,E8*K$8*(1+K$8)^(K$4-F8)/((1+K$8)^(K$4-F8)-1),B7)</f>
+        <v>85036.556003459846</v>
       </c>
       <c r="C8" s="3">
-        <f t="shared" si="4"/>
-        <v>99271.765109521439</v>
+        <f t="shared" si="5"/>
+        <v>80830.213625658376</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="5"/>
-        <v>4110.6073572246532</v>
+        <f t="shared" ref="D8:D12" si="6">E7*K$3/100*(A8-A7)/365</f>
+        <v>4206.3423778014758</v>
       </c>
       <c r="E8" s="3">
-        <f t="shared" si="1"/>
-        <v>304053.95676870394</v>
+        <f t="shared" si="3"/>
+        <v>331888.86376615317</v>
       </c>
       <c r="F8">
         <v>6</v>
       </c>
       <c r="G8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H8" s="3">
-        <f t="shared" si="3"/>
-        <v>729093.05113817682</v>
+        <f t="shared" si="2"/>
+        <v>712946.93875931564</v>
       </c>
       <c r="J8" t="s">
         <v>10</v>
@@ -687,31 +690,31 @@
         <v>44531</v>
       </c>
       <c r="B9">
+        <f t="shared" ref="B9:B13" si="7">IF(G9&gt;0,E9*K$8*(1+K$8)^(K$4-F9)/((1+K$8)^(K$4-F9)-1),B8)</f>
+        <v>85036.556003459846</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="5"/>
+        <v>81763.131593711485</v>
+      </c>
+      <c r="D9" s="3">
         <f t="shared" si="6"/>
-        <v>103382.37246674609</v>
-      </c>
-      <c r="C9" s="3">
-        <f t="shared" si="4"/>
-        <v>100383.48412601367</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" si="5"/>
-        <v>2998.888340732422</v>
+        <v>3273.4244097483602</v>
       </c>
       <c r="E9" s="3">
-        <f t="shared" si="1"/>
-        <v>203670.47264269026</v>
+        <f t="shared" si="3"/>
+        <v>250125.73217244167</v>
       </c>
       <c r="F9">
         <v>7</v>
       </c>
       <c r="G9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H9" s="3">
-        <f t="shared" si="3"/>
-        <v>832475.42360492295</v>
+        <f t="shared" si="2"/>
+        <v>797983.49476277549</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -719,31 +722,31 @@
         <v>44562</v>
       </c>
       <c r="B10">
+        <f t="shared" si="7"/>
+        <v>85036.556003459846</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="5"/>
+        <v>82487.329363236611</v>
+      </c>
+      <c r="D10" s="3">
         <f t="shared" si="6"/>
-        <v>103382.37246674609</v>
-      </c>
-      <c r="C10" s="3">
-        <f t="shared" si="4"/>
-        <v>101306.60764967538</v>
-      </c>
-      <c r="D10" s="3">
-        <f t="shared" si="5"/>
-        <v>2075.7648170707062</v>
+        <v>2549.2266402232412</v>
       </c>
       <c r="E10" s="3">
-        <f t="shared" si="1"/>
-        <v>102363.86499301488</v>
+        <f t="shared" si="3"/>
+        <v>167638.40280920506</v>
       </c>
       <c r="F10">
         <v>8</v>
       </c>
       <c r="G10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H10" s="3">
-        <f t="shared" si="3"/>
-        <v>935857.79607166909</v>
+        <f t="shared" si="2"/>
+        <v>883020.05076623545</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -751,31 +754,31 @@
         <v>44593</v>
       </c>
       <c r="B11">
+        <f t="shared" si="7"/>
+        <v>85036.556003459846</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="5"/>
+        <v>83328.022144692062</v>
+      </c>
+      <c r="D11" s="3">
         <f t="shared" si="6"/>
-        <v>103382.37246674609</v>
-      </c>
-      <c r="C11" s="3">
-        <f t="shared" si="4"/>
-        <v>102339.1023906529</v>
-      </c>
-      <c r="D11" s="3">
-        <f t="shared" si="5"/>
-        <v>1043.2700760931925</v>
+        <v>1708.5338587677888</v>
       </c>
       <c r="E11" s="3">
-        <f t="shared" si="1"/>
-        <v>24.762602361981408</v>
+        <f t="shared" si="3"/>
+        <v>84310.380664512995</v>
       </c>
       <c r="F11">
         <v>9</v>
       </c>
       <c r="G11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H11" s="3">
-        <f t="shared" si="3"/>
-        <v>1039240.1685384152</v>
+        <f t="shared" si="2"/>
+        <v>968056.6067696953</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -783,42 +786,74 @@
         <v>44621</v>
       </c>
       <c r="B12">
+        <f t="shared" si="7"/>
+        <v>85036.556003459846</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" si="5"/>
+        <v>84260.438526657759</v>
+      </c>
+      <c r="D12" s="3">
         <f t="shared" si="6"/>
-        <v>103382.37246674609</v>
-      </c>
-      <c r="C12" s="3">
-        <f t="shared" si="4"/>
-        <v>103382.14451511887</v>
-      </c>
-      <c r="D12" s="3">
-        <f t="shared" si="5"/>
-        <v>0.22795162722262338</v>
+        <v>776.11747680209214</v>
       </c>
       <c r="E12" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>49.942137855236069</v>
       </c>
       <c r="F12">
         <v>10</v>
       </c>
       <c r="G12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H12" s="3">
-        <f t="shared" si="3"/>
-        <v>1142622.5410051614</v>
+        <f t="shared" si="2"/>
+        <v>1053093.1627731551</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1">
+        <v>44652</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="7"/>
+        <v>85036.556003459846</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" ref="C13" si="8">MIN(B12-D13,E12)</f>
+        <v>49.942137855236069</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" ref="D13" si="9">E12*K$3/100*(A13-A12)/365</f>
+        <v>0.50899932279857041</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>11</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ref="G13" si="10">IF(F13=K$5,K$6,0)</f>
+        <v>0</v>
+      </c>
       <c r="H13" s="3">
-        <f>H12-K2</f>
-        <v>142622.54100516136</v>
+        <f>H12+C13+IF(E13&gt;0,D13,0)+G13</f>
+        <v>1053143.1049110105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H14" s="3">
+        <f>H13-K2</f>
+        <v>53143.10491101048</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E15" s="3"/>
+      <c r="H15" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -831,7 +866,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -875,6 +910,9 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>44317</v>
+      </c>
       <c r="B2">
         <f>K2*K$8*(1+K$8)^K4/((1+K$8)^K4-1)</f>
         <v>105582.07655117115</v>
@@ -890,8 +928,7 @@
       </c>
       <c r="F2" s="2"/>
       <c r="H2">
-        <f>B2</f>
-        <v>105582.07655117115</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>5</v>
@@ -909,16 +946,16 @@
         <v>105582.07655117115</v>
       </c>
       <c r="C3" s="3">
-        <f>B3-D3</f>
-        <v>105582.07655117115</v>
+        <f t="shared" ref="C3:C10" si="0">MIN(B3-D3,E2)</f>
+        <v>95390.295729253339</v>
       </c>
       <c r="D3" s="3">
-        <f>(E$2-G3)*K$3/100*(A$3-A$3)/365</f>
-        <v>0</v>
+        <f t="shared" ref="D3:D6" si="1">E2*K$3/100*(A3-A2)/365</f>
+        <v>10191.780821917808</v>
       </c>
       <c r="E3" s="3">
-        <f>MAX(E2-C3-G3,0)</f>
-        <v>894417.92344882886</v>
+        <f>E2-C3-G3</f>
+        <v>904609.70427074668</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -928,8 +965,8 @@
         <v>0</v>
       </c>
       <c r="H3" s="3">
-        <f>H2+B3+G3</f>
-        <v>211164.1531023423</v>
+        <f t="shared" ref="H3:H11" si="2">H2+C3+IF(E3&gt;0,D3,0)+G3</f>
+        <v>105582.07655117115</v>
       </c>
       <c r="J3" t="s">
         <v>6</v>
@@ -943,31 +980,31 @@
         <v>44378</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B12" si="0">IF(E3&gt;0,B3,0)</f>
+        <f t="shared" ref="B4:B12" si="3">IF(E3&gt;0,B3,0)</f>
         <v>105582.07655117115</v>
       </c>
       <c r="C4" s="3">
-        <f>B4-D4</f>
-        <v>96760.420319895027</v>
+        <f t="shared" si="0"/>
+        <v>96659.898646035013</v>
       </c>
       <c r="D4" s="3">
-        <f>(E3-G4)*K$3/100*(A4-A3)/365</f>
-        <v>8821.6562312761198</v>
+        <f t="shared" si="1"/>
+        <v>8922.1779051361318</v>
       </c>
       <c r="E4" s="3">
-        <f t="shared" ref="E4:E12" si="1">MAX(E3-C4-G4,0)</f>
-        <v>797657.50312893384</v>
+        <f t="shared" ref="E4:E12" si="4">E3-C4-G4</f>
+        <v>807949.80562471168</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G12" si="2">IF(F4=K$5,K$6,0)</f>
+        <f t="shared" ref="G4:G12" si="5">IF(F4=K$5,K$6,0)</f>
         <v>0</v>
       </c>
       <c r="H4" s="3">
-        <f t="shared" ref="H4:H12" si="3">H3+B4+G4</f>
-        <v>316746.22965351347</v>
+        <f t="shared" si="2"/>
+        <v>211164.1531023423</v>
       </c>
       <c r="J4" t="s">
         <v>7</v>
@@ -981,31 +1018,31 @@
         <v>44409</v>
       </c>
       <c r="B5">
+        <f t="shared" si="3"/>
+        <v>105582.07655117115</v>
+      </c>
+      <c r="C5" s="3">
         <f t="shared" si="0"/>
-        <v>105582.07655117115</v>
-      </c>
-      <c r="C5" s="3">
-        <f t="shared" ref="C5:C12" si="4">B5-D5</f>
-        <v>97452.52610832284</v>
+        <v>97347.629217132999</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" ref="D5:D12" si="5">(E4-G5)*K$3/100*(A5-A4)/365</f>
-        <v>8129.5504428483127</v>
+        <f t="shared" si="1"/>
+        <v>8234.4473340381555</v>
       </c>
       <c r="E5" s="3">
-        <f t="shared" si="1"/>
-        <v>700204.97702061106</v>
+        <f t="shared" si="4"/>
+        <v>710602.17640757863</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
       <c r="G5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H5" s="3">
-        <f t="shared" si="3"/>
-        <v>422328.3062046846</v>
+        <f t="shared" si="2"/>
+        <v>316746.22965351347</v>
       </c>
       <c r="J5" t="s">
         <v>8</v>
@@ -1019,31 +1056,31 @@
         <v>44440</v>
       </c>
       <c r="B6">
+        <f t="shared" si="3"/>
+        <v>105582.07655117115</v>
+      </c>
+      <c r="C6" s="3">
         <f t="shared" si="0"/>
-        <v>105582.07655117115</v>
-      </c>
-      <c r="C6" s="3">
-        <f t="shared" si="4"/>
-        <v>98445.740894961084</v>
+        <v>98339.77491764733</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="5"/>
-        <v>7136.3356562100644</v>
+        <f t="shared" si="1"/>
+        <v>7242.3016335238162</v>
       </c>
       <c r="E6" s="3">
-        <f t="shared" si="1"/>
-        <v>601759.23612565</v>
+        <f t="shared" si="4"/>
+        <v>612262.40148993128</v>
       </c>
       <c r="F6">
         <v>4</v>
       </c>
       <c r="G6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H6" s="3">
-        <f t="shared" si="3"/>
-        <v>527910.3827558558</v>
+        <f t="shared" si="2"/>
+        <v>422328.3062046846</v>
       </c>
       <c r="J6" t="s">
         <v>9</v>
@@ -1057,31 +1094,31 @@
         <v>44470</v>
       </c>
       <c r="B7">
+        <f t="shared" si="3"/>
+        <v>105582.07655117115</v>
+      </c>
+      <c r="C7" s="3">
         <f t="shared" si="0"/>
-        <v>105582.07655117115</v>
-      </c>
-      <c r="C7" s="3">
-        <f t="shared" si="4"/>
-        <v>100633.21833184967</v>
+        <v>99543.324098119774</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="5"/>
-        <v>4948.8582193214797</v>
+        <f>E6*K$3/100*(A7-A6)/365</f>
+        <v>6038.7524530513774</v>
       </c>
       <c r="E7" s="3">
-        <f t="shared" si="1"/>
-        <v>401126.01779380033</v>
+        <f t="shared" si="4"/>
+        <v>412719.07739181153</v>
       </c>
       <c r="F7">
         <v>5</v>
       </c>
       <c r="G7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>100000</v>
       </c>
       <c r="H7" s="3">
-        <f t="shared" si="3"/>
-        <v>733492.45930702693</v>
+        <f t="shared" si="2"/>
+        <v>627910.3827558558</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1089,31 +1126,31 @@
         <v>44501</v>
       </c>
       <c r="B8">
+        <f t="shared" si="3"/>
+        <v>105582.07655117115</v>
+      </c>
+      <c r="C8" s="3">
         <f t="shared" si="0"/>
-        <v>105582.07655117115</v>
-      </c>
-      <c r="C8" s="3">
-        <f t="shared" si="4"/>
-        <v>101493.88809584803</v>
+        <v>101375.73417336968</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="5"/>
-        <v>4088.1884553231166</v>
+        <f t="shared" ref="D8:D12" si="6">E7*K$3/100*(A8-A7)/365</f>
+        <v>4206.3423778014758</v>
       </c>
       <c r="E8" s="3">
-        <f t="shared" si="1"/>
-        <v>299632.1296979523</v>
+        <f t="shared" si="4"/>
+        <v>311343.34321844182</v>
       </c>
       <c r="F8">
         <v>6</v>
       </c>
       <c r="G8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H8" s="3">
-        <f t="shared" si="3"/>
-        <v>839074.53585819807</v>
+        <f t="shared" si="2"/>
+        <v>733492.45930702693</v>
       </c>
       <c r="J8" t="s">
         <v>10</v>
@@ -1128,31 +1165,31 @@
         <v>44531</v>
       </c>
       <c r="B9">
+        <f t="shared" si="3"/>
+        <v>105582.07655117115</v>
+      </c>
+      <c r="C9" s="3">
         <f t="shared" si="0"/>
-        <v>105582.07655117115</v>
-      </c>
-      <c r="C9" s="3">
-        <f t="shared" si="4"/>
-        <v>102626.80075141053</v>
+        <v>102511.29289203035</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="5"/>
-        <v>2955.2757997606254</v>
+        <f t="shared" si="6"/>
+        <v>3070.7836591407959</v>
       </c>
       <c r="E9" s="3">
-        <f t="shared" si="1"/>
-        <v>197005.32894654176</v>
+        <f t="shared" si="4"/>
+        <v>208832.05032641147</v>
       </c>
       <c r="F9">
         <v>7</v>
       </c>
       <c r="G9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H9" s="3">
-        <f t="shared" si="3"/>
-        <v>944656.61240936921</v>
+        <f t="shared" si="2"/>
+        <v>839074.53585819807</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1160,31 +1197,31 @@
         <v>44562</v>
       </c>
       <c r="B10">
+        <f t="shared" si="3"/>
+        <v>105582.07655117115</v>
+      </c>
+      <c r="C10" s="3">
         <f t="shared" si="0"/>
-        <v>105582.07655117115</v>
-      </c>
-      <c r="C10" s="3">
-        <f t="shared" si="4"/>
-        <v>103574.24141779818</v>
+        <v>103453.70606565266</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="5"/>
-        <v>2007.8351333729734</v>
+        <f t="shared" si="6"/>
+        <v>2128.3704855184947</v>
       </c>
       <c r="E10" s="3">
-        <f t="shared" si="1"/>
-        <v>93431.087528743577</v>
+        <f t="shared" si="4"/>
+        <v>105378.34426075881</v>
       </c>
       <c r="F10">
         <v>8</v>
       </c>
       <c r="G10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H10" s="3">
-        <f t="shared" si="3"/>
-        <v>1050238.6889605403</v>
+        <f t="shared" si="2"/>
+        <v>944656.61240936921</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1192,31 +1229,31 @@
         <v>44593</v>
       </c>
       <c r="B11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>105582.07655117115</v>
       </c>
       <c r="C11" s="3">
-        <f t="shared" si="4"/>
-        <v>104629.84738512478</v>
+        <f>MIN(B11-D11,E10)</f>
+        <v>104508.08356308889</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="5"/>
-        <v>952.22916604637305</v>
+        <f t="shared" si="6"/>
+        <v>1073.9929880822542</v>
       </c>
       <c r="E11" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>870.26069766991714</v>
       </c>
       <c r="F11">
         <v>9</v>
       </c>
       <c r="G11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H11" s="3">
-        <f t="shared" si="3"/>
-        <v>1155820.7655117116</v>
+        <f t="shared" si="2"/>
+        <v>1050238.6889605403</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1224,39 +1261,42 @@
         <v>44621</v>
       </c>
       <c r="B12">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>105582.07655117115</v>
       </c>
       <c r="C12" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>MIN(B12-D12,E11)</f>
+        <v>870.26069766991714</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>8.011166970331292</v>
       </c>
       <c r="E12" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F12">
         <v>10</v>
       </c>
       <c r="G12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H12" s="3">
-        <f t="shared" si="3"/>
-        <v>1155820.7655117116</v>
+        <f>H11+C12+IF(E12&gt;0,D12,0)+G12</f>
+        <v>1051108.9496582102</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="H13" s="3">
         <f>H12-K2</f>
-        <v>155820.76551171159</v>
-      </c>
+        <v>51108.949658210156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E15" s="3"/>
